--- a/Results/Discussion/overall_performance.xlsx
+++ b/Results/Discussion/overall_performance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3CFD45-8818-4473-B1C7-4709B17C97DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EDC3B6-ECB6-4D19-B491-240644EFAE2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="960" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="22">
   <si>
     <t>Match</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,6 +228,9 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -555,7 +562,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -580,7 +587,7 @@
         <v>72</v>
       </c>
       <c r="I3" s="6">
-        <f>SUM(C3:H3)</f>
+        <f t="shared" ref="I3:I11" si="0">SUM(C3:H3)</f>
         <v>430</v>
       </c>
       <c r="J3" s="6">
@@ -588,7 +595,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -611,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <f>SUM(C4:H4)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="J4" s="6">
@@ -619,7 +626,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
@@ -628,27 +635,27 @@
         <v>183</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" ref="D5:H5" si="0">SUM(D3:D4)</f>
+        <f t="shared" ref="D5:H5" si="1">SUM(D3:D4)</f>
         <v>39</v>
       </c>
       <c r="E5" s="11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="I5" s="6">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F5" s="11">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="G5" s="11">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="H5" s="11">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="I5" s="6">
-        <f>SUM(C5:H5)</f>
         <v>446</v>
       </c>
       <c r="J5" s="6">
@@ -657,7 +664,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -682,7 +689,7 @@
         <v>78</v>
       </c>
       <c r="I6" s="6">
-        <f>SUM(C6:H6)</f>
+        <f t="shared" si="0"/>
         <v>309</v>
       </c>
       <c r="J6" s="6">
@@ -690,7 +697,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
@@ -713,7 +720,7 @@
         <v>124</v>
       </c>
       <c r="I7" s="6">
-        <f>SUM(C7:H7)</f>
+        <f t="shared" si="0"/>
         <v>494</v>
       </c>
       <c r="J7" s="6">
@@ -721,7 +728,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -730,27 +737,27 @@
         <v>248</v>
       </c>
       <c r="D8" s="11">
-        <f t="shared" ref="D8:H8" si="1">SUM(D6:D7)</f>
+        <f t="shared" ref="D8:H8" si="2">SUM(D6:D7)</f>
         <v>17</v>
       </c>
       <c r="E8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>325</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>202</v>
       </c>
       <c r="I8" s="6">
-        <f>SUM(C8:H8)</f>
+        <f t="shared" si="0"/>
         <v>803</v>
       </c>
       <c r="J8" s="6">
@@ -759,7 +766,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -784,7 +791,7 @@
         <v>240</v>
       </c>
       <c r="I9" s="6">
-        <f>SUM(C9:H9)</f>
+        <f t="shared" si="0"/>
         <v>448</v>
       </c>
       <c r="J9" s="6">
@@ -792,7 +799,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
@@ -815,7 +822,7 @@
         <v>342</v>
       </c>
       <c r="I10" s="6">
-        <f>SUM(C10:H10)</f>
+        <f t="shared" si="0"/>
         <v>767</v>
       </c>
       <c r="J10" s="6">
@@ -823,7 +830,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
@@ -832,27 +839,27 @@
         <v>562</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" ref="D11:H11" si="2">SUM(D9:D10)</f>
+        <f t="shared" ref="D11:H11" si="3">SUM(D9:D10)</f>
         <v>11</v>
       </c>
       <c r="E11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="G11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>582</v>
       </c>
       <c r="I11" s="6">
-        <f>SUM(C11:H11)</f>
+        <f t="shared" si="0"/>
         <v>1215</v>
       </c>
       <c r="J11" s="6">
@@ -861,7 +868,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -893,38 +900,37 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="11">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="D13" s="11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E13" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="11">
         <v>0</v>
       </c>
       <c r="H13" s="11">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="I13" s="6">
-        <f>SUM(C13:H13)</f>
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="J13" s="6">
         <v>832</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
@@ -955,7 +961,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -988,7 +994,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
@@ -1019,7 +1025,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
@@ -1028,23 +1034,23 @@
         <v>453</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" ref="D17:H17" si="3">SUM(D15:D16)</f>
+        <f t="shared" ref="D17:H17" si="4">SUM(D15:D16)</f>
         <v>40</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="H17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>327</v>
       </c>
       <c r="I17" s="6">
@@ -1057,606 +1063,764 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="3"/>
+      <c r="A18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="6">
+        <v>465</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="11">
+        <v>416</v>
+      </c>
+      <c r="D19" s="11">
+        <v>19</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11">
+        <v>3</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>176</v>
+      </c>
+      <c r="I19" s="6">
+        <f>SUM(C19:H19)</f>
+        <v>616</v>
+      </c>
+      <c r="J19" s="6">
+        <v>832</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="6">
+        <f>SUM(J18:J19)</f>
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="12">
-        <f>C3/I3</f>
+      <c r="C26" s="12">
+        <f t="shared" ref="C26:C34" si="5">C3/I3</f>
         <v>0.41860465116279072</v>
       </c>
-      <c r="D22" s="12">
-        <f>D3/I3</f>
+      <c r="D26" s="12">
+        <f t="shared" ref="D26:D34" si="6">D3/I3</f>
         <v>9.0697674418604657E-2</v>
       </c>
-      <c r="E22" s="12">
-        <f>E3/I3</f>
+      <c r="E26" s="12">
+        <f t="shared" ref="E26:E34" si="7">E3/I3</f>
         <v>2.7906976744186046E-2</v>
       </c>
-      <c r="F22" s="12">
-        <f>F3/I3</f>
+      <c r="F26" s="12">
+        <f t="shared" ref="F26:F34" si="8">F3/I3</f>
         <v>0.28604651162790695</v>
       </c>
-      <c r="G22" s="12">
-        <f>G3/I3</f>
+      <c r="G26" s="12">
+        <f t="shared" ref="G26:G34" si="9">G3/I3</f>
         <v>9.3023255813953487E-3</v>
       </c>
-      <c r="H22" s="12">
-        <f>H3/I3</f>
+      <c r="H26" s="12">
+        <f t="shared" ref="H26:I34" si="10">H3/I3</f>
         <v>0.16744186046511628</v>
       </c>
-      <c r="I22" s="12">
-        <f>I3/J3</f>
+      <c r="I26" s="12">
+        <f t="shared" si="10"/>
         <v>0.92473118279569888</v>
       </c>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8" t="s">
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="12">
-        <f>C4/I4</f>
+      <c r="C27" s="12">
+        <f t="shared" si="5"/>
         <v>0.1875</v>
       </c>
-      <c r="D23" s="12">
-        <f>D4/I4</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
-        <f>E4/I4</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="12">
-        <f>F4/I4</f>
+      <c r="D27" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="8"/>
         <v>0.1875</v>
       </c>
-      <c r="G23" s="12">
-        <f>G4/I4</f>
+      <c r="G27" s="12">
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
-      <c r="H23" s="12">
-        <f>H4/I4</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="12">
-        <f>I4/J4</f>
+      <c r="H27" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <f t="shared" si="10"/>
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="8" t="s">
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="12">
-        <f>C5/I5</f>
+      <c r="C28" s="12">
+        <f t="shared" si="5"/>
         <v>0.4103139013452915</v>
       </c>
-      <c r="D24" s="12">
-        <f>D5/I5</f>
+      <c r="D28" s="12">
+        <f t="shared" si="6"/>
         <v>8.744394618834081E-2</v>
       </c>
-      <c r="E24" s="12">
-        <f>E5/I5</f>
+      <c r="E28" s="12">
+        <f t="shared" si="7"/>
         <v>2.6905829596412557E-2</v>
       </c>
-      <c r="F24" s="12">
-        <f>F5/I5</f>
+      <c r="F28" s="12">
+        <f t="shared" si="8"/>
         <v>0.28251121076233182</v>
       </c>
-      <c r="G24" s="12">
-        <f>G5/I5</f>
+      <c r="G28" s="12">
+        <f t="shared" si="9"/>
         <v>3.1390134529147982E-2</v>
       </c>
-      <c r="H24" s="12">
-        <f>H5/I5</f>
+      <c r="H28" s="12">
+        <f t="shared" si="10"/>
         <v>0.16143497757847533</v>
       </c>
-      <c r="I24" s="12">
-        <f>I5/J5</f>
+      <c r="I28" s="12">
+        <f t="shared" si="10"/>
         <v>0.34387047031611412</v>
       </c>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="12">
-        <f>C6/I6</f>
+      <c r="C29" s="12">
+        <f t="shared" si="5"/>
         <v>0.46925566343042069</v>
       </c>
-      <c r="D25" s="12">
-        <f>D6/I6</f>
+      <c r="D29" s="12">
+        <f t="shared" si="6"/>
         <v>3.5598705501618123E-2</v>
       </c>
-      <c r="E25" s="12">
-        <f>E6/I6</f>
+      <c r="E29" s="12">
+        <f t="shared" si="7"/>
         <v>2.9126213592233011E-2</v>
       </c>
-      <c r="F25" s="12">
-        <f>F6/I6</f>
+      <c r="F29" s="12">
+        <f t="shared" si="8"/>
         <v>0.21359223300970873</v>
       </c>
-      <c r="G25" s="12">
-        <f>G6/I6</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="12">
-        <f>H6/I6</f>
+      <c r="G29" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
+        <f t="shared" si="10"/>
         <v>0.25242718446601942</v>
       </c>
-      <c r="I25" s="12">
-        <f>I6/J6</f>
+      <c r="I29" s="12">
+        <f t="shared" si="10"/>
         <v>0.6645161290322581</v>
       </c>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="8" t="s">
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="12">
-        <f>C7/I7</f>
+      <c r="C30" s="12">
+        <f t="shared" si="5"/>
         <v>0.20850202429149797</v>
       </c>
-      <c r="D26" s="12">
-        <f>D7/I7</f>
+      <c r="D30" s="12">
+        <f t="shared" si="6"/>
         <v>1.2145748987854251E-2</v>
       </c>
-      <c r="E26" s="12">
-        <f>E7/I7</f>
+      <c r="E30" s="12">
+        <f t="shared" si="7"/>
         <v>4.048582995951417E-3</v>
       </c>
-      <c r="F26" s="12">
-        <f>F7/I7</f>
+      <c r="F30" s="12">
+        <f t="shared" si="8"/>
         <v>0.52429149797570851</v>
       </c>
-      <c r="G26" s="12">
-        <f>G7/I7</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="12">
-        <f>H7/I7</f>
+      <c r="G30" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="12">
+        <f t="shared" si="10"/>
         <v>0.25101214574898784</v>
       </c>
-      <c r="I26" s="12">
-        <f>I7/J7</f>
+      <c r="I30" s="12">
+        <f t="shared" si="10"/>
         <v>0.59375</v>
       </c>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="8" t="s">
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="12">
-        <f>C8/I8</f>
+      <c r="C31" s="12">
+        <f t="shared" si="5"/>
         <v>0.30884184308841844</v>
       </c>
-      <c r="D27" s="12">
-        <f>D8/I8</f>
+      <c r="D31" s="12">
+        <f t="shared" si="6"/>
         <v>2.1170610211706103E-2</v>
       </c>
-      <c r="E27" s="12">
-        <f>E8/I8</f>
+      <c r="E31" s="12">
+        <f t="shared" si="7"/>
         <v>1.3698630136986301E-2</v>
       </c>
-      <c r="F27" s="12">
-        <f>F8/I8</f>
+      <c r="F31" s="12">
+        <f t="shared" si="8"/>
         <v>0.40473225404732255</v>
       </c>
-      <c r="G27" s="12">
-        <f>G8/I8</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="12">
-        <f>H8/I8</f>
+      <c r="G31" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
+        <f t="shared" si="10"/>
         <v>0.25155666251556663</v>
       </c>
-      <c r="I27" s="12">
-        <f>I8/J8</f>
+      <c r="I31" s="12">
+        <f t="shared" si="10"/>
         <v>0.61912104857363148</v>
       </c>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="12">
-        <f>C9/I9</f>
+      <c r="C32" s="12">
+        <f t="shared" si="5"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="D28" s="12">
-        <f>D9/I9</f>
+      <c r="D32" s="12">
+        <f t="shared" si="6"/>
         <v>8.9285714285714281E-3</v>
       </c>
-      <c r="E28" s="12">
-        <f>E9/I9</f>
+      <c r="E32" s="12">
+        <f t="shared" si="7"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="F28" s="12">
-        <f>F9/I9</f>
+      <c r="F32" s="12">
+        <f t="shared" si="8"/>
         <v>6.6964285714285711E-3</v>
       </c>
-      <c r="G28" s="12">
-        <f>G9/I9</f>
+      <c r="G32" s="12">
+        <f t="shared" si="9"/>
         <v>4.464285714285714E-3</v>
       </c>
-      <c r="H28" s="12">
-        <f>H9/I9</f>
+      <c r="H32" s="12">
+        <f t="shared" si="10"/>
         <v>0.5357142857142857</v>
       </c>
-      <c r="I28" s="12">
-        <f>I9/J9</f>
+      <c r="I32" s="12">
+        <f t="shared" si="10"/>
         <v>0.96344086021505382</v>
       </c>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="8" t="s">
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="12">
-        <f>C10/I10</f>
+      <c r="C33" s="12">
+        <f t="shared" si="5"/>
         <v>0.48239895697522817</v>
       </c>
-      <c r="D29" s="12">
-        <f>D10/I10</f>
+      <c r="D33" s="12">
+        <f t="shared" si="6"/>
         <v>9.126466753585397E-3</v>
       </c>
-      <c r="E29" s="12">
-        <f>E10/I10</f>
+      <c r="E33" s="12">
+        <f t="shared" si="7"/>
         <v>2.3468057366362451E-2</v>
       </c>
-      <c r="F29" s="12">
-        <f>F10/I10</f>
+      <c r="F33" s="12">
+        <f t="shared" si="8"/>
         <v>3.1290743155149937E-2</v>
       </c>
-      <c r="G29" s="12">
-        <f>G10/I10</f>
+      <c r="G33" s="12">
+        <f t="shared" si="9"/>
         <v>7.8226857887874843E-3</v>
       </c>
-      <c r="H29" s="12">
-        <f>H10/I10</f>
+      <c r="H33" s="12">
+        <f t="shared" si="10"/>
         <v>0.44589308996088656</v>
       </c>
-      <c r="I29" s="12">
-        <f>I10/J10</f>
+      <c r="I33" s="12">
+        <f t="shared" si="10"/>
         <v>0.921875</v>
       </c>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="8" t="s">
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="12">
-        <f>C11/I11</f>
+      <c r="C34" s="12">
+        <f t="shared" si="5"/>
         <v>0.46255144032921813</v>
       </c>
-      <c r="D30" s="12">
-        <f>D11/I11</f>
+      <c r="D34" s="12">
+        <f t="shared" si="6"/>
         <v>9.0534979423868307E-3</v>
       </c>
-      <c r="E30" s="12">
-        <f>E11/I11</f>
+      <c r="E34" s="12">
+        <f t="shared" si="7"/>
         <v>2.0576131687242798E-2</v>
       </c>
-      <c r="F30" s="12">
-        <f>F11/I11</f>
+      <c r="F34" s="12">
+        <f t="shared" si="8"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="G30" s="12">
-        <f>G11/I11</f>
+      <c r="G34" s="12">
+        <f t="shared" si="9"/>
         <v>6.5843621399176953E-3</v>
       </c>
-      <c r="H30" s="12">
-        <f>H11/I11</f>
+      <c r="H34" s="12">
+        <f t="shared" si="10"/>
         <v>0.47901234567901235</v>
       </c>
-      <c r="I30" s="12">
-        <f>I11/J11</f>
+      <c r="I34" s="12">
+        <f t="shared" si="10"/>
         <v>0.93677717810331529</v>
       </c>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="8" t="s">
+      <c r="C35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="12">
-        <f>C13/I13</f>
-        <v>0.67532467532467533</v>
-      </c>
-      <c r="D32" s="12">
-        <f>D13/I13</f>
-        <v>3.0844155844155844E-2</v>
-      </c>
-      <c r="E32" s="12">
-        <f>E13/I13</f>
-        <v>3.246753246753247E-3</v>
-      </c>
-      <c r="F32" s="12">
-        <f>F13/I13</f>
-        <v>4.87012987012987E-3</v>
-      </c>
-      <c r="G32" s="12">
-        <f>G13/I13</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="12">
-        <f>H13/I13</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="I32" s="12">
+      <c r="C36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="12">
         <f>I13/J13</f>
-        <v>0.74038461538461542</v>
-      </c>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="C37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C38" s="12">
         <f>C15/I15</f>
         <v>0.56206896551724139</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D38" s="12">
         <f>D15/I15</f>
         <v>0.1</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E38" s="12">
         <f>E15/I15</f>
         <v>4.8275862068965517E-2</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F38" s="12">
         <f>F15/I15</f>
         <v>6.8965517241379309E-3</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G38" s="12">
         <f>G15/I15</f>
         <v>3.4482758620689655E-3</v>
       </c>
-      <c r="H34" s="12">
-        <f>H15/I15</f>
+      <c r="H38" s="12">
+        <f t="shared" ref="H38:I40" si="11">H15/I15</f>
         <v>0.27931034482758621</v>
       </c>
-      <c r="I34" s="12">
-        <f>I15/J15</f>
+      <c r="I38" s="12">
+        <f t="shared" si="11"/>
         <v>0.62365591397849462</v>
       </c>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="8" t="s">
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="12">
-        <f>C16/I16</f>
+      <c r="C39" s="12">
+        <f t="shared" ref="C39:C43" si="12">C16/I16</f>
         <v>0.48172757475083056</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D39" s="12">
         <f>D16/I16</f>
         <v>1.8272425249169437E-2</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E39" s="12">
         <f>E16/I16</f>
         <v>4.1528239202657809E-2</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F39" s="12">
         <f>F16/I16</f>
         <v>3.9867109634551492E-2</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G39" s="12">
         <f>G16/I16</f>
         <v>9.9667774086378731E-3</v>
       </c>
-      <c r="H35" s="12">
-        <f>H16/I16</f>
+      <c r="H39" s="12">
+        <f t="shared" si="11"/>
         <v>0.40863787375415284</v>
       </c>
-      <c r="I35" s="12">
-        <f>I16/J16</f>
+      <c r="I39" s="12">
+        <f t="shared" si="11"/>
         <v>0.72355769230769229</v>
       </c>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="8" t="s">
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="12">
-        <f>C17/I17</f>
+      <c r="C40" s="12">
+        <f t="shared" si="12"/>
         <v>0.50784753363228696</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D40" s="12">
         <f>D17/I17</f>
         <v>4.4843049327354258E-2</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E40" s="12">
         <f>E17/I17</f>
         <v>4.3721973094170405E-2</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F40" s="12">
         <f>F17/I17</f>
         <v>2.914798206278027E-2</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G40" s="12">
         <f>G17/I17</f>
         <v>7.8475336322869956E-3</v>
       </c>
-      <c r="H36" s="12">
-        <f>H17/I17</f>
+      <c r="H40" s="12">
+        <f t="shared" si="11"/>
         <v>0.36659192825112108</v>
       </c>
-      <c r="I36" s="12">
-        <f>I17/J17</f>
+      <c r="I40" s="12">
+        <f t="shared" si="11"/>
         <v>0.68774094063222824</v>
       </c>
-      <c r="J36" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
+      <c r="B42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="12">
+        <f>C19/616</f>
+        <v>0.67532467532467533</v>
+      </c>
+      <c r="D42" s="12">
+        <f t="shared" ref="D42:H42" si="13">D19/616</f>
+        <v>3.0844155844155844E-2</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" si="13"/>
+        <v>3.246753246753247E-3</v>
+      </c>
+      <c r="F42" s="12">
+        <f t="shared" si="13"/>
+        <v>4.87012987012987E-3</v>
+      </c>
+      <c r="G42" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="12">
+        <f t="shared" si="13"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I42" s="12">
+        <f>I19/J19</f>
+        <v>0.74038461538461542</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="13"/>
+      <c r="B43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A41:A43"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A28:A30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Discussion/overall_performance.xlsx
+++ b/Results/Discussion/overall_performance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EDC3B6-ECB6-4D19-B491-240644EFAE2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D87D34-D96B-4C51-92C4-A6846BB86C05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="960" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="22">
   <si>
     <t>Match</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1063,213 +1063,226 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="6">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="6" t="s">
+      <c r="C23" s="12">
+        <f>C3/I3</f>
+        <v>0.41860465116279072</v>
+      </c>
+      <c r="D23" s="12">
+        <f>D3/I3</f>
+        <v>9.0697674418604657E-2</v>
+      </c>
+      <c r="E23" s="12">
+        <f>E3/I3</f>
+        <v>2.7906976744186046E-2</v>
+      </c>
+      <c r="F23" s="12">
+        <f>F3/I3</f>
+        <v>0.28604651162790695</v>
+      </c>
+      <c r="G23" s="12">
+        <f>G3/I3</f>
+        <v>9.3023255813953487E-3</v>
+      </c>
+      <c r="H23" s="12">
+        <f>H3/I3</f>
+        <v>0.16744186046511628</v>
+      </c>
+      <c r="I23" s="12">
+        <f>I3/J3</f>
+        <v>0.92473118279569888</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="11">
-        <v>416</v>
-      </c>
-      <c r="D19" s="11">
-        <v>19</v>
-      </c>
-      <c r="E19" s="11">
-        <v>2</v>
-      </c>
-      <c r="F19" s="11">
-        <v>3</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <v>176</v>
-      </c>
-      <c r="I19" s="6">
-        <f>SUM(C19:H19)</f>
-        <v>616</v>
-      </c>
-      <c r="J19" s="6">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="6" t="s">
+      <c r="C24" s="12">
+        <f>C4/I4</f>
+        <v>0.1875</v>
+      </c>
+      <c r="D24" s="12">
+        <f>D4/I4</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <f>E4/I4</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
+        <f>F4/I4</f>
+        <v>0.1875</v>
+      </c>
+      <c r="G24" s="12">
+        <f>G4/I4</f>
+        <v>0.625</v>
+      </c>
+      <c r="H24" s="12">
+        <f>H4/I4</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <f>I4/J4</f>
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="6">
-        <f>SUM(J18:J19)</f>
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="7"/>
+      <c r="C25" s="12">
+        <f>C5/I5</f>
+        <v>0.4103139013452915</v>
+      </c>
+      <c r="D25" s="12">
+        <f>D5/I5</f>
+        <v>8.744394618834081E-2</v>
+      </c>
+      <c r="E25" s="12">
+        <f>E5/I5</f>
+        <v>2.6905829596412557E-2</v>
+      </c>
+      <c r="F25" s="12">
+        <f>F5/I5</f>
+        <v>0.28251121076233182</v>
+      </c>
+      <c r="G25" s="12">
+        <f>G5/I5</f>
+        <v>3.1390134529147982E-2</v>
+      </c>
+      <c r="H25" s="12">
+        <f>H5/I5</f>
+        <v>0.16143497757847533</v>
+      </c>
+      <c r="I25" s="12">
+        <f>I5/J5</f>
+        <v>0.34387047031611412</v>
+      </c>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="12">
-        <f t="shared" ref="C26:C34" si="5">C3/I3</f>
-        <v>0.41860465116279072</v>
+        <f>C6/I6</f>
+        <v>0.46925566343042069</v>
       </c>
       <c r="D26" s="12">
-        <f t="shared" ref="D26:D34" si="6">D3/I3</f>
-        <v>9.0697674418604657E-2</v>
+        <f>D6/I6</f>
+        <v>3.5598705501618123E-2</v>
       </c>
       <c r="E26" s="12">
-        <f t="shared" ref="E26:E34" si="7">E3/I3</f>
-        <v>2.7906976744186046E-2</v>
+        <f>E6/I6</f>
+        <v>2.9126213592233011E-2</v>
       </c>
       <c r="F26" s="12">
-        <f t="shared" ref="F26:F34" si="8">F3/I3</f>
-        <v>0.28604651162790695</v>
+        <f>F6/I6</f>
+        <v>0.21359223300970873</v>
       </c>
       <c r="G26" s="12">
-        <f t="shared" ref="G26:G34" si="9">G3/I3</f>
-        <v>9.3023255813953487E-3</v>
+        <f>G6/I6</f>
+        <v>0</v>
       </c>
       <c r="H26" s="12">
-        <f t="shared" ref="H26:I34" si="10">H3/I3</f>
-        <v>0.16744186046511628</v>
+        <f>H6/I6</f>
+        <v>0.25242718446601942</v>
       </c>
       <c r="I26" s="12">
-        <f t="shared" si="10"/>
-        <v>0.92473118279569888</v>
+        <f>I6/J6</f>
+        <v>0.6645161290322581</v>
       </c>
       <c r="J26" s="8"/>
     </row>
@@ -1279,32 +1292,32 @@
         <v>8</v>
       </c>
       <c r="C27" s="12">
-        <f t="shared" si="5"/>
-        <v>0.1875</v>
+        <f>C7/I7</f>
+        <v>0.20850202429149797</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>D7/I7</f>
+        <v>1.2145748987854251E-2</v>
       </c>
       <c r="E27" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>E7/I7</f>
+        <v>4.048582995951417E-3</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" si="8"/>
-        <v>0.1875</v>
+        <f>F7/I7</f>
+        <v>0.52429149797570851</v>
       </c>
       <c r="G27" s="12">
-        <f t="shared" si="9"/>
-        <v>0.625</v>
+        <f>G7/I7</f>
+        <v>0</v>
       </c>
       <c r="H27" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>H7/I7</f>
+        <v>0.25101214574898784</v>
       </c>
       <c r="I27" s="12">
-        <f t="shared" si="10"/>
-        <v>1.9230769230769232E-2</v>
+        <f>I7/J7</f>
+        <v>0.59375</v>
       </c>
       <c r="J27" s="8"/>
     </row>
@@ -1314,69 +1327,69 @@
         <v>9</v>
       </c>
       <c r="C28" s="12">
-        <f t="shared" si="5"/>
-        <v>0.4103139013452915</v>
+        <f>C8/I8</f>
+        <v>0.30884184308841844</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" si="6"/>
-        <v>8.744394618834081E-2</v>
+        <f>D8/I8</f>
+        <v>2.1170610211706103E-2</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" si="7"/>
-        <v>2.6905829596412557E-2</v>
+        <f>E8/I8</f>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="F28" s="12">
-        <f t="shared" si="8"/>
-        <v>0.28251121076233182</v>
+        <f>F8/I8</f>
+        <v>0.40473225404732255</v>
       </c>
       <c r="G28" s="12">
-        <f t="shared" si="9"/>
-        <v>3.1390134529147982E-2</v>
+        <f>G8/I8</f>
+        <v>0</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" si="10"/>
-        <v>0.16143497757847533</v>
+        <f>H8/I8</f>
+        <v>0.25155666251556663</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="10"/>
-        <v>0.34387047031611412</v>
+        <f>I8/J8</f>
+        <v>0.61912104857363148</v>
       </c>
       <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="12">
-        <f t="shared" si="5"/>
-        <v>0.46925566343042069</v>
+        <f>C9/I9</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" si="6"/>
-        <v>3.5598705501618123E-2</v>
+        <f>D9/I9</f>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="E29" s="12">
-        <f t="shared" si="7"/>
-        <v>2.9126213592233011E-2</v>
+        <f>E9/I9</f>
+        <v>1.5625E-2</v>
       </c>
       <c r="F29" s="12">
-        <f t="shared" si="8"/>
-        <v>0.21359223300970873</v>
+        <f>F9/I9</f>
+        <v>6.6964285714285711E-3</v>
       </c>
       <c r="G29" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>G9/I9</f>
+        <v>4.464285714285714E-3</v>
       </c>
       <c r="H29" s="12">
-        <f t="shared" si="10"/>
-        <v>0.25242718446601942</v>
+        <f>H9/I9</f>
+        <v>0.5357142857142857</v>
       </c>
       <c r="I29" s="12">
-        <f t="shared" si="10"/>
-        <v>0.6645161290322581</v>
+        <f>I9/J9</f>
+        <v>0.96344086021505382</v>
       </c>
       <c r="J29" s="8"/>
     </row>
@@ -1386,32 +1399,32 @@
         <v>8</v>
       </c>
       <c r="C30" s="12">
-        <f t="shared" si="5"/>
-        <v>0.20850202429149797</v>
+        <f>C10/I10</f>
+        <v>0.48239895697522817</v>
       </c>
       <c r="D30" s="12">
-        <f t="shared" si="6"/>
-        <v>1.2145748987854251E-2</v>
+        <f>D10/I10</f>
+        <v>9.126466753585397E-3</v>
       </c>
       <c r="E30" s="12">
-        <f t="shared" si="7"/>
-        <v>4.048582995951417E-3</v>
+        <f>E10/I10</f>
+        <v>2.3468057366362451E-2</v>
       </c>
       <c r="F30" s="12">
-        <f t="shared" si="8"/>
-        <v>0.52429149797570851</v>
+        <f>F10/I10</f>
+        <v>3.1290743155149937E-2</v>
       </c>
       <c r="G30" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>G10/I10</f>
+        <v>7.8226857887874843E-3</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" si="10"/>
-        <v>0.25101214574898784</v>
+        <f>H10/I10</f>
+        <v>0.44589308996088656</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" si="10"/>
-        <v>0.59375</v>
+        <f>I10/J10</f>
+        <v>0.921875</v>
       </c>
       <c r="J30" s="8"/>
     </row>
@@ -1421,69 +1434,62 @@
         <v>9</v>
       </c>
       <c r="C31" s="12">
-        <f t="shared" si="5"/>
-        <v>0.30884184308841844</v>
+        <f>C11/I11</f>
+        <v>0.46255144032921813</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" si="6"/>
-        <v>2.1170610211706103E-2</v>
+        <f>D11/I11</f>
+        <v>9.0534979423868307E-3</v>
       </c>
       <c r="E31" s="12">
-        <f t="shared" si="7"/>
-        <v>1.3698630136986301E-2</v>
+        <f>E11/I11</f>
+        <v>2.0576131687242798E-2</v>
       </c>
       <c r="F31" s="12">
-        <f t="shared" si="8"/>
-        <v>0.40473225404732255</v>
+        <f>F11/I11</f>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="G31" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>G11/I11</f>
+        <v>6.5843621399176953E-3</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="10"/>
-        <v>0.25155666251556663</v>
+        <f>H11/I11</f>
+        <v>0.47901234567901235</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" si="10"/>
-        <v>0.61912104857363148</v>
+        <f>I11/J11</f>
+        <v>0.93677717810331529</v>
       </c>
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="12">
-        <f t="shared" si="5"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="D32" s="12">
-        <f t="shared" si="6"/>
-        <v>8.9285714285714281E-3</v>
-      </c>
-      <c r="E32" s="12">
-        <f t="shared" si="7"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="F32" s="12">
-        <f t="shared" si="8"/>
-        <v>6.6964285714285711E-3</v>
-      </c>
-      <c r="G32" s="12">
-        <f t="shared" si="9"/>
-        <v>4.464285714285714E-3</v>
-      </c>
-      <c r="H32" s="12">
-        <f t="shared" si="10"/>
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="I32" s="12">
-        <f t="shared" si="10"/>
-        <v>0.96344086021505382</v>
+      <c r="C32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="J32" s="8"/>
     </row>
@@ -1492,33 +1498,27 @@
       <c r="B33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="12">
-        <f t="shared" si="5"/>
-        <v>0.48239895697522817</v>
-      </c>
-      <c r="D33" s="12">
-        <f t="shared" si="6"/>
-        <v>9.126466753585397E-3</v>
-      </c>
-      <c r="E33" s="12">
-        <f t="shared" si="7"/>
-        <v>2.3468057366362451E-2</v>
-      </c>
-      <c r="F33" s="12">
-        <f t="shared" si="8"/>
-        <v>3.1290743155149937E-2</v>
-      </c>
-      <c r="G33" s="12">
-        <f t="shared" si="9"/>
-        <v>7.8226857887874843E-3</v>
-      </c>
-      <c r="H33" s="12">
-        <f t="shared" si="10"/>
-        <v>0.44589308996088656</v>
+      <c r="C33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="I33" s="12">
-        <f t="shared" si="10"/>
-        <v>0.921875</v>
+        <f>I13/J13</f>
+        <v>0</v>
       </c>
       <c r="J33" s="8"/>
     </row>
@@ -1527,63 +1527,63 @@
       <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="12">
-        <f t="shared" si="5"/>
-        <v>0.46255144032921813</v>
-      </c>
-      <c r="D34" s="12">
-        <f t="shared" si="6"/>
-        <v>9.0534979423868307E-3</v>
-      </c>
-      <c r="E34" s="12">
-        <f t="shared" si="7"/>
-        <v>2.0576131687242798E-2</v>
-      </c>
-      <c r="F34" s="12">
-        <f t="shared" si="8"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="G34" s="12">
-        <f t="shared" si="9"/>
-        <v>6.5843621399176953E-3</v>
-      </c>
-      <c r="H34" s="12">
-        <f t="shared" si="10"/>
-        <v>0.47901234567901235</v>
-      </c>
-      <c r="I34" s="12">
-        <f t="shared" si="10"/>
-        <v>0.93677717810331529</v>
+      <c r="C34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>20</v>
+      <c r="C35" s="12">
+        <f>C15/I15</f>
+        <v>0.56206896551724139</v>
+      </c>
+      <c r="D35" s="12">
+        <f>D15/I15</f>
+        <v>0.1</v>
+      </c>
+      <c r="E35" s="12">
+        <f>E15/I15</f>
+        <v>4.8275862068965517E-2</v>
+      </c>
+      <c r="F35" s="12">
+        <f>F15/I15</f>
+        <v>6.8965517241379309E-3</v>
+      </c>
+      <c r="G35" s="12">
+        <f>G15/I15</f>
+        <v>3.4482758620689655E-3</v>
+      </c>
+      <c r="H35" s="12">
+        <f>H15/I15</f>
+        <v>0.27931034482758621</v>
+      </c>
+      <c r="I35" s="12">
+        <f>I15/J15</f>
+        <v>0.62365591397849462</v>
       </c>
       <c r="J35" s="8"/>
     </row>
@@ -1592,27 +1592,33 @@
       <c r="B36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>21</v>
+      <c r="C36" s="12">
+        <f>C16/I16</f>
+        <v>0.48172757475083056</v>
+      </c>
+      <c r="D36" s="12">
+        <f>D16/I16</f>
+        <v>1.8272425249169437E-2</v>
+      </c>
+      <c r="E36" s="12">
+        <f>E16/I16</f>
+        <v>4.1528239202657809E-2</v>
+      </c>
+      <c r="F36" s="12">
+        <f>F16/I16</f>
+        <v>3.9867109634551492E-2</v>
+      </c>
+      <c r="G36" s="12">
+        <f>G16/I16</f>
+        <v>9.9667774086378731E-3</v>
+      </c>
+      <c r="H36" s="12">
+        <f>H16/I16</f>
+        <v>0.40863787375415284</v>
       </c>
       <c r="I36" s="12">
-        <f>I13/J13</f>
-        <v>0</v>
+        <f>I16/J16</f>
+        <v>0.72355769230769229</v>
       </c>
       <c r="J36" s="8"/>
     </row>
@@ -1621,206 +1627,48 @@
       <c r="B37" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="12">
-        <f>C15/I15</f>
-        <v>0.56206896551724139</v>
-      </c>
-      <c r="D38" s="12">
-        <f>D15/I15</f>
-        <v>0.1</v>
-      </c>
-      <c r="E38" s="12">
-        <f>E15/I15</f>
-        <v>4.8275862068965517E-2</v>
-      </c>
-      <c r="F38" s="12">
-        <f>F15/I15</f>
-        <v>6.8965517241379309E-3</v>
-      </c>
-      <c r="G38" s="12">
-        <f>G15/I15</f>
-        <v>3.4482758620689655E-3</v>
-      </c>
-      <c r="H38" s="12">
-        <f t="shared" ref="H38:I40" si="11">H15/I15</f>
-        <v>0.27931034482758621</v>
-      </c>
-      <c r="I38" s="12">
-        <f t="shared" si="11"/>
-        <v>0.62365591397849462</v>
-      </c>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="12">
-        <f t="shared" ref="C39:C43" si="12">C16/I16</f>
-        <v>0.48172757475083056</v>
-      </c>
-      <c r="D39" s="12">
-        <f>D16/I16</f>
-        <v>1.8272425249169437E-2</v>
-      </c>
-      <c r="E39" s="12">
-        <f>E16/I16</f>
-        <v>4.1528239202657809E-2</v>
-      </c>
-      <c r="F39" s="12">
-        <f>F16/I16</f>
-        <v>3.9867109634551492E-2</v>
-      </c>
-      <c r="G39" s="12">
-        <f>G16/I16</f>
-        <v>9.9667774086378731E-3</v>
-      </c>
-      <c r="H39" s="12">
-        <f t="shared" si="11"/>
-        <v>0.40863787375415284</v>
-      </c>
-      <c r="I39" s="12">
-        <f t="shared" si="11"/>
-        <v>0.72355769230769229</v>
-      </c>
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="12">
-        <f t="shared" si="12"/>
+      <c r="C37" s="12">
+        <f>C17/I17</f>
         <v>0.50784753363228696</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D37" s="12">
         <f>D17/I17</f>
         <v>4.4843049327354258E-2</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E37" s="12">
         <f>E17/I17</f>
         <v>4.3721973094170405E-2</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F37" s="12">
         <f>F17/I17</f>
         <v>2.914798206278027E-2</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G37" s="12">
         <f>G17/I17</f>
         <v>7.8475336322869956E-3</v>
       </c>
-      <c r="H40" s="12">
-        <f t="shared" si="11"/>
+      <c r="H37" s="12">
+        <f>H17/I17</f>
         <v>0.36659192825112108</v>
       </c>
-      <c r="I40" s="12">
-        <f t="shared" si="11"/>
+      <c r="I37" s="12">
+        <f>I17/J17</f>
         <v>0.68774094063222824</v>
       </c>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="12" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="12">
-        <f>C19/616</f>
-        <v>0.67532467532467533</v>
-      </c>
-      <c r="D42" s="12">
-        <f t="shared" ref="D42:H42" si="13">D19/616</f>
-        <v>3.0844155844155844E-2</v>
-      </c>
-      <c r="E42" s="12">
-        <f t="shared" si="13"/>
-        <v>3.246753246753247E-3</v>
-      </c>
-      <c r="F42" s="12">
-        <f t="shared" si="13"/>
-        <v>4.87012987012987E-3</v>
-      </c>
-      <c r="G42" s="12">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="12">
-        <f t="shared" si="13"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="I42" s="12">
-        <f>I19/J19</f>
-        <v>0.74038461538461542</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="12" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J37" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A41:A43"/>
+  <mergeCells count="10">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A29:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
